--- a/New Capacity.xlsx
+++ b/New Capacity.xlsx
@@ -2193,7 +2193,7 @@
         <v>2015</v>
       </c>
       <c r="E80">
-        <v>23859.80097</v>
+        <v>72005.87740000003</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>2020</v>
       </c>
       <c r="E81">
-        <v>11455.5</v>
+        <v>34366.5</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>2025</v>
       </c>
       <c r="E82">
-        <v>9284</v>
+        <v>27852</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>2015</v>
       </c>
       <c r="E131">
-        <v>48146.07643000001</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>2020</v>
       </c>
       <c r="E132">
-        <v>22911</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>2025</v>
       </c>
       <c r="E133">
-        <v>18568</v>
+        <v>0</v>
       </c>
       <c r="F133">
         <v>0</v>
